--- a/SchedulingData/static1/pso/scheduling1_20.xlsx
+++ b/SchedulingData/static1/pso/scheduling1_20.xlsx
@@ -462,26 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.62</v>
+        <v>45.4</v>
       </c>
       <c r="E2" t="n">
-        <v>26.308</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -504,93 +504,93 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>58.62</v>
       </c>
-      <c r="D4" t="n">
-        <v>108.42</v>
-      </c>
       <c r="E4" t="n">
-        <v>22.948</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1</v>
+        <v>83.52</v>
       </c>
       <c r="E5" t="n">
-        <v>26.88</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4</v>
+        <v>41.48</v>
       </c>
       <c r="E6" t="n">
-        <v>27.14</v>
+        <v>27.052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.52</v>
+        <v>43.1</v>
       </c>
       <c r="E7" t="n">
-        <v>26.788</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43.1</v>
+        <v>41.48</v>
       </c>
       <c r="D8" t="n">
-        <v>88.88</v>
+        <v>105.98</v>
       </c>
       <c r="E8" t="n">
-        <v>23.932</v>
+        <v>23.692</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.12</v>
       </c>
       <c r="D9" t="n">
-        <v>65.81999999999999</v>
+        <v>104.34</v>
       </c>
       <c r="E9" t="n">
-        <v>26.568</v>
+        <v>23.356</v>
       </c>
     </row>
   </sheetData>
